--- a/backend/downloads/merged_shift_chem_2025-07-17.xlsx
+++ b/backend/downloads/merged_shift_chem_2025-07-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,462 +434,464 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>P_key</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Test Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Heat_No.</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SMS</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Mill</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>C_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MN_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>P_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>S_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SI_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>AL_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>CR_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>V_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>N_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>H_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>O_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>CU_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>NI_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MO_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>NB_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>TI_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>SB_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>SN_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>CT_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>CMN_RESULT_Ladle</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>REMARKS_Ladle</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>STRAND_NO_Prod1</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>C_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>MN_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>P_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>S_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>SI_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>AL_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>CR_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>V_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>N_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>CU_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>NI_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>MO_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>NB_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>TI_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>SB_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>SN_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>CT_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>CMN_RESULT_Prod1</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>STRAND_NO_Prod2</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>C_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>MN_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>P_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>S_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>SI_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>AL_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>CR_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>V_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>N_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>CU_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>NI_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>MO_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>NB_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>TI_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>SB_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>SN_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>CT_RESULT_Prod2</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>CMN_RESULT_Prod2</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>SMS-2URM399268</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>399268</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>SMS-2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.68</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1.14</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.016</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.024</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.03</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.026</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.0062</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.9</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
         <v>0.01</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.004</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>0.05</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>0.73</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>1.14</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.019</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AE2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AF2" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG2" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI2" t="n">
         <v>0.023</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>0.007</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="AK2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
         <v>0.003</v>
       </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
       <c r="AP2" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS2" t="n">
         <v>0.053</v>
       </c>
-      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
@@ -908,147 +910,150 @@
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>SMS-2URM399281</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>399281</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>SMS-2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.67</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1.13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.02</v>
-      </c>
       <c r="H3" t="n">
         <v>0.02</v>
       </c>
       <c r="I3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.32</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.003</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.02</v>
-      </c>
       <c r="L3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.024</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.0063</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>0.8</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
         <v>0.01</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>0.003</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>0.04</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>0.72</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.016</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>0.022</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF3" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG3" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI3" t="n">
         <v>0.022</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>0.005</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="AK3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS3" t="n">
         <v>0.052</v>
       </c>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
@@ -1067,147 +1072,150 @@
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>SMS-2URM399325</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>399325</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>SMS-2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.7</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1.09</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>0.016</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.017</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.003</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="L4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.025</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.0045</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>0.9</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>0.01</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.005</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>0.06</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>0.7</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>1.09</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>0.016</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>0.019</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>0.32</v>
       </c>
-      <c r="AF4" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG4" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI4" t="n">
         <v>0.021</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>0.005</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
       <c r="AK4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
         <v>0.003</v>
       </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
       <c r="AP4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS4" t="n">
         <v>0.051</v>
       </c>
-      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
@@ -1226,136 +1234,137 @@
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>SMS-2URM400641</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>400641</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>SMS-2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.68</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1.11</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.012</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.019</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.33</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K5" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.024</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.0047</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1.1</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>0.004</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>0.05</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>0.66</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>1.11</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>0.012</v>
       </c>
-      <c r="AD5" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AE5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF5" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG5" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI5" t="n">
         <v>0.021</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>0.005</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
       <c r="AK5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
@@ -1364,9 +1373,11 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
         <v>0.051</v>
       </c>
-      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
@@ -1385,147 +1396,150 @@
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>SMS-2URM400730</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>400730</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>SMS-2</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>1.14</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>0.019</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.017</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.29</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.03</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.026</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0.0061</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>1.4</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
         <v>0.01</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.003</v>
       </c>
-      <c r="T6" t="n">
-        <v>0.001</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.003</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>0.04</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>IV</t>
         </is>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>0.71</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>1.09</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>0.014</v>
       </c>
-      <c r="AD6" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AE6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF6" t="n">
         <v>0.32</v>
       </c>
-      <c r="AF6" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG6" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI6" t="n">
         <v>0.022</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>0.005</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
       <c r="AK6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS6" t="n">
         <v>0.052</v>
       </c>
-      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
@@ -1544,147 +1558,150 @@
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>SMS-2URM400746</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>400746</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>SMS-2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.67</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>1.16</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.019</v>
       </c>
       <c r="H7" t="n">
         <v>0.019</v>
       </c>
       <c r="I7" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.34</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.003</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.03</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.027</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>0.0049</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>1.1</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.005</v>
       </c>
-      <c r="T7" t="n">
-        <v>0.002</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>0.003</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>0.03</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>0.06</v>
       </c>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr">
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>0.71</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>0.018</v>
       </c>
-      <c r="AD7" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AE7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF7" t="n">
         <v>0.24</v>
       </c>
-      <c r="AF7" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG7" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH7" t="n">
         <v>0.04</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>0.023</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>0.004</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
       <c r="AK7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS7" t="n">
         <v>0.073</v>
       </c>
-      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
@@ -1703,547 +1720,556 @@
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104303</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>104303</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.74</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>1.14</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.02</v>
-      </c>
       <c r="H8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.016</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.35</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K8" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.026</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.0061</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="X8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.056</v>
       </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>VI</t>
         </is>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>1.06</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AD8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0.016</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>0.31</v>
       </c>
-      <c r="AF8" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG8" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI8" t="n">
         <v>0.021</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>0.005</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
       <c r="AK8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS8" t="n">
         <v>0.051</v>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>IV</t>
         </is>
       </c>
-      <c r="AT8" t="n">
+      <c r="AU8" t="n">
         <v>0.7</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AV8" t="n">
         <v>1.1</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AW8" t="n">
         <v>0.014</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AX8" t="n">
         <v>0.018</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AY8" t="n">
         <v>0.31</v>
       </c>
-      <c r="AY8" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB8" t="n">
         <v>0.022</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>0.005</v>
       </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
       <c r="BD8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL8" t="n">
         <v>0.052</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104715</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>104715</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.72</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>1.06</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>0.017</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.01</v>
-      </c>
       <c r="I9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.33</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K9" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.025</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.005</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>1.3</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>6</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V9" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="X9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.055</v>
       </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr">
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>0.72</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>1.16</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>0.014</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>0.017</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>0.32</v>
       </c>
-      <c r="AF9" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG9" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI9" t="n">
         <v>0.022</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>0.005</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
       <c r="AK9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS9" t="n">
         <v>0.052</v>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AT9" t="n">
+      <c r="AU9" t="n">
         <v>0.74</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AV9" t="n">
         <v>1.19</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AW9" t="n">
         <v>0.016</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AX9" t="n">
         <v>0.023</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>0.33</v>
       </c>
-      <c r="AY9" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB9" t="n">
         <v>0.024</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BC9" t="n">
         <v>0.004</v>
       </c>
-      <c r="BC9" t="n">
-        <v>0</v>
-      </c>
       <c r="BD9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL9" t="n">
         <v>0.054</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104719</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>104719</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.7</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>1.17</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>0.013</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0.016</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.37</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K10" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.027</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>0.0063</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>1.1</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="X10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0.057</v>
       </c>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr">
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>0.71</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>1.13</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>0.019</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>0.015</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>0.31</v>
       </c>
-      <c r="AF10" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG10" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI10" t="n">
         <v>0.023</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>0.006</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
       <c r="AK10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS10" t="n">
         <v>0.053</v>
       </c>
-      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
@@ -2262,2790 +2288,2833 @@
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104728</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>104728</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.72</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>1.04</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>0.014</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.017</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.31</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K11" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.024</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.0062</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>1.1</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>0.003</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>0.03</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>0.054</v>
       </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>0.66</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>1.12</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>0.013</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>0.019</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF11" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG11" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI11" t="n">
         <v>0.022</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>0.006</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
       <c r="AK11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS11" t="n">
         <v>0.052</v>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AT11" t="n">
+      <c r="AU11" t="n">
         <v>0.74</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AV11" t="n">
         <v>1.11</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AW11" t="n">
         <v>0.019</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AX11" t="n">
         <v>0.023</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AY11" t="n">
         <v>0.32</v>
       </c>
-      <c r="AY11" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB11" t="n">
         <v>0.023</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BC11" t="n">
         <v>0.005</v>
       </c>
-      <c r="BC11" t="n">
-        <v>0</v>
-      </c>
       <c r="BD11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="n">
         <v>0.003</v>
       </c>
-      <c r="BH11" t="n">
-        <v>0</v>
-      </c>
       <c r="BI11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL11" t="n">
         <v>0.053</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104731</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>104731</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.73</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1.03</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>0.012</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>0.014</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>0.31</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K12" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.021</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>0.0051</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>1.2</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0.003</v>
       </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>0.003</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>0.03</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>0.051</v>
       </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr">
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>0.72</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>1.14</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>0.017</v>
       </c>
-      <c r="AD12" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AE12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF12" t="n">
         <v>0.34</v>
       </c>
-      <c r="AF12" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG12" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI12" t="n">
         <v>0.023</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>0.007</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
       <c r="AK12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS12" t="n">
         <v>0.053</v>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="AT12" t="n">
+      <c r="AU12" t="n">
         <v>0.71</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AV12" t="n">
         <v>1.1</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AW12" t="n">
         <v>0.018</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AX12" t="n">
         <v>0.014</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AY12" t="n">
         <v>0.32</v>
       </c>
-      <c r="AY12" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB12" t="n">
         <v>0.022</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BC12" t="n">
         <v>0.006</v>
       </c>
-      <c r="BC12" t="n">
-        <v>0</v>
-      </c>
       <c r="BD12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF12" t="n">
         <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL12" t="n">
         <v>0.052</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104734</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>104734</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.7</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1.05</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>0.013</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>0.019</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>0.32</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K13" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.022</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.0066</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>1.1</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="X13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y13" t="n">
         <v>0.052</v>
       </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr">
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>0.71</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>0.016</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>0.018</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF13" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG13" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI13" t="n">
         <v>0.022</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>0.004</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
       <c r="AK13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
         <v>0.003</v>
       </c>
-      <c r="AO13" t="n">
-        <v>0.001</v>
-      </c>
       <c r="AP13" t="n">
         <v>0.001</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS13" t="n">
         <v>0.052</v>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AT13" t="n">
+      <c r="AU13" t="n">
         <v>0.74</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AV13" t="n">
         <v>1.1</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AW13" t="n">
         <v>0.018</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AX13" t="n">
         <v>0.021</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AY13" t="n">
         <v>0.31</v>
       </c>
-      <c r="AY13" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB13" t="n">
         <v>0.022</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BC13" t="n">
         <v>0.005</v>
       </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
       <c r="BD13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF13" t="n">
         <v>0</v>
       </c>
       <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="n">
         <v>0.003</v>
       </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
       <c r="BI13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL13" t="n">
         <v>0.052</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104737</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>104737</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.71</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1.06</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>0.015</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.31</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K14" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.023</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>0.0053</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>1.2</v>
       </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>0.003</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>0.03</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>0.053</v>
       </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>0.74</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>0.018</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>0.013</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>0.31</v>
       </c>
-      <c r="AF14" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG14" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI14" t="n">
         <v>0.025</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
         <v>0.004</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AK14" t="n">
         <v>0.01</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="AR14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AS14" t="n">
         <v>0.065</v>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="AT14" t="n">
+      <c r="AU14" t="n">
         <v>0.72</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AV14" t="n">
         <v>1.12</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AW14" t="n">
         <v>0.017</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AX14" t="n">
         <v>0.018</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AY14" t="n">
         <v>0.34</v>
       </c>
-      <c r="AY14" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB14" t="n">
         <v>0.022</v>
       </c>
-      <c r="BB14" t="n">
+      <c r="BC14" t="n">
         <v>0.006</v>
       </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
       <c r="BD14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF14" t="n">
         <v>0</v>
       </c>
       <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
         <v>0.003</v>
       </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
       <c r="BI14" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL14" t="n">
         <v>0.052</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104754</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>104754</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.73</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1.06</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>0.017</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.011</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.33</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K15" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.024</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0.0059</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>1.1</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0.003</v>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>0.004</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>0.04</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>0.054</v>
       </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr">
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
         <v>0.71</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>1.13</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>0.015</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>0.022</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>0.31</v>
       </c>
-      <c r="AF15" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG15" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI15" t="n">
         <v>0.024</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
         <v>0.006</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
       <c r="AK15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS15" t="n">
         <v>0.054</v>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AT15" t="n">
+      <c r="AU15" t="n">
         <v>0.73</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AV15" t="n">
         <v>1.14</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AW15" t="n">
         <v>0.016</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AX15" t="n">
         <v>0.018</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AY15" t="n">
         <v>0.32</v>
       </c>
-      <c r="AY15" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB15" t="n">
         <v>0.023</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BC15" t="n">
         <v>0.005</v>
       </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
       <c r="BD15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL15" t="n">
         <v>0.053</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104848</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>104848</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.68</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1.09</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0.014</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0.016</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>0.34</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K16" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.024</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>0.0052</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>1.3</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>0.004</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>0.04</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>0.054</v>
       </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>0.67</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>1.12</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>0.013</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>0.017</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF16" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG16" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI16" t="n">
         <v>0.022</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>0.006</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
       <c r="AK16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS16" t="n">
         <v>0.052</v>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AT16" t="n">
+      <c r="AU16" t="n">
         <v>0.72</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AV16" t="n">
         <v>1.12</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AW16" t="n">
         <v>0.018</v>
       </c>
-      <c r="AW16" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AX16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AY16" t="n">
         <v>0.33</v>
       </c>
-      <c r="AY16" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA16" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB16" t="n">
         <v>0.022</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BC16" t="n">
         <v>0.006</v>
       </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
       <c r="BD16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
       </c>
       <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
         <v>0.003</v>
       </c>
-      <c r="BH16" t="n">
-        <v>0</v>
-      </c>
       <c r="BI16" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL16" t="n">
         <v>0.052</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104959</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>104959</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.7</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1.13</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>0.016</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>0.022</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.31</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K17" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.025</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>0.0047</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>1.1</v>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>0.003</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>0.03</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>0.055</v>
       </c>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr">
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
         <v>0.72</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>1.11</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>0.015</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>0.018</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
         <v>0.32</v>
       </c>
-      <c r="AF17" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG17" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI17" t="n">
         <v>0.023</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AJ17" t="n">
         <v>0.006</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
       <c r="AK17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS17" t="n">
         <v>0.053</v>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AT17" t="n">
+      <c r="AU17" t="n">
         <v>0.71</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AV17" t="n">
         <v>1.12</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AW17" t="n">
         <v>0.017</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AX17" t="n">
         <v>0.012</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AY17" t="n">
         <v>0.25</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AZ17" t="n">
         <v>0.003</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="BA17" t="n">
         <v>0.04</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BB17" t="n">
         <v>0.023</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BC17" t="n">
         <v>0.005</v>
       </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
       <c r="BD17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BH17" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL17" t="n">
         <v>0.073</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM104961</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>104961</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.72</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.13</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>0.016</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0.019</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.35</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K18" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.025</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>0.0043</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>1.2</v>
       </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>0.003</v>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>0.004</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>0.04</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>0.055</v>
       </c>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr">
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AA18" t="n">
+      <c r="AB18" t="n">
         <v>0.65</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>1.07</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0.015</v>
       </c>
       <c r="AD18" t="n">
         <v>0.015</v>
       </c>
       <c r="AE18" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AF18" t="n">
         <v>0.31</v>
       </c>
-      <c r="AF18" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG18" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH18" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI18" t="n">
         <v>0.021</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
         <v>0.005</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
       <c r="AK18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
       </c>
       <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>0.003</v>
       </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
       <c r="AP18" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS18" t="n">
         <v>0.051</v>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="AT18" t="n">
+      <c r="AU18" t="n">
         <v>0.71</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AV18" t="n">
         <v>1.16</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AW18" t="n">
         <v>0.018</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AX18" t="n">
         <v>0.024</v>
       </c>
-      <c r="AX18" t="n">
+      <c r="AY18" t="n">
         <v>0.32</v>
       </c>
-      <c r="AY18" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ18" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BA18" t="n">
         <v>0.03</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BB18" t="n">
         <v>0.023</v>
       </c>
-      <c r="BB18" t="n">
+      <c r="BC18" t="n">
         <v>0.005</v>
       </c>
-      <c r="BC18" t="n">
-        <v>0</v>
-      </c>
       <c r="BD18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF18" t="n">
         <v>0</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="BI18" t="n">
         <v>0.001</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL18" t="n">
         <v>0.063</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM105104</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>105104</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.68</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>1.06</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>0.013</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>0.017</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0.32</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K19" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.023</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0.0052</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>1.3</v>
       </c>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>0.004</v>
       </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
       <c r="V19" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="X19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y19" t="n">
         <v>0.053</v>
       </c>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr">
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA19" t="n">
+      <c r="AB19" t="n">
         <v>0.73</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>1.15</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>0.014</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>0.021</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
         <v>0.32</v>
       </c>
-      <c r="AF19" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG19" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI19" t="n">
         <v>0.022</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AJ19" t="n">
         <v>0.004</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
       <c r="AK19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS19" t="n">
         <v>0.052</v>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AT19" t="n">
+      <c r="AU19" t="n">
         <v>0.73</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AV19" t="n">
         <v>1.08</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AW19" t="n">
         <v>0.018</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AX19" t="n">
         <v>0.019</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AY19" t="n">
         <v>0.31</v>
       </c>
-      <c r="AY19" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB19" t="n">
         <v>0.022</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BC19" t="n">
         <v>0.005</v>
       </c>
-      <c r="BC19" t="n">
-        <v>0</v>
-      </c>
       <c r="BD19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF19" t="n">
         <v>0</v>
       </c>
       <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="n">
         <v>0.003</v>
       </c>
-      <c r="BH19" t="n">
-        <v>0</v>
-      </c>
       <c r="BI19" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL19" t="n">
         <v>0.052</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM105107</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>105107</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>1.05</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>0.016</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>0.019</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0.31</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K20" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.023</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>0.0063</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>1.1</v>
       </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>0.003</v>
       </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="X20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.053</v>
       </c>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr">
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="AA20" t="n">
+      <c r="AB20" t="n">
         <v>0.71</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>1.06</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>0.014</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="n">
         <v>0.013</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
         <v>0.31</v>
       </c>
-      <c r="AF20" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG20" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI20" t="n">
         <v>0.019</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
         <v>0.005</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
       <c r="AK20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS20" t="n">
         <v>0.049</v>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AT20" t="n">
+      <c r="AU20" t="n">
         <v>0.73</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AV20" t="n">
         <v>1.07</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AW20" t="n">
         <v>0.018</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AX20" t="n">
         <v>0.019</v>
       </c>
-      <c r="AX20" t="n">
+      <c r="AY20" t="n">
         <v>0.3</v>
       </c>
-      <c r="AY20" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ20" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB20" t="n">
         <v>0.021</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="BC20" t="n">
         <v>0.005</v>
       </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
       <c r="BD20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF20" t="n">
         <v>0</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="BH20" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL20" t="n">
         <v>0.051</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM105111</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>105111</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>1.15</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>0.016</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0.018</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>0.37</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K21" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M21" t="n">
         <v>0.025</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0.006</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>1.2</v>
       </c>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>0.005</v>
       </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
       <c r="V21" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="X21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y21" t="n">
         <v>0.055</v>
       </c>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr">
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>0.73</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>1.17</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>0.014</v>
       </c>
-      <c r="AD21" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AE21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF21" t="n">
         <v>0.26</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG21" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH21" t="n">
         <v>0.03</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AI21" t="n">
         <v>0.026</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AJ21" t="n">
         <v>0.006</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AK21" t="n">
         <v>0.01</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="AR21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AS21" t="n">
         <v>0.076</v>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="AT21" t="n">
+      <c r="AU21" t="n">
         <v>0.71</v>
       </c>
-      <c r="AU21" t="n">
+      <c r="AV21" t="n">
         <v>1.13</v>
       </c>
-      <c r="AV21" t="n">
+      <c r="AW21" t="n">
         <v>0.014</v>
       </c>
-      <c r="AW21" t="n">
+      <c r="AX21" t="n">
         <v>0.023</v>
       </c>
-      <c r="AX21" t="n">
+      <c r="AY21" t="n">
         <v>0.33</v>
       </c>
-      <c r="AY21" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB21" t="n">
         <v>0.023</v>
       </c>
-      <c r="BB21" t="n">
+      <c r="BC21" t="n">
         <v>0.006</v>
       </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
       <c r="BD21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF21" t="n">
         <v>0</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BH21" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL21" t="n">
         <v>0.053</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM105115</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>105115</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.7</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>1.14</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.019</v>
       </c>
       <c r="H22" t="n">
         <v>0.019</v>
       </c>
       <c r="I22" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.34</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K22" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M22" t="n">
         <v>0.024</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>0.0054</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>1.3</v>
       </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>0.003</v>
       </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
       <c r="V22" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="X22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y22" t="n">
         <v>0.054</v>
       </c>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr">
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>0.73</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>1.16</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>0.019</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
         <v>0.015</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
         <v>0.28</v>
       </c>
-      <c r="AF22" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG22" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI22" t="n">
         <v>0.026</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AJ22" t="n">
         <v>0.007</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
       <c r="AK22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS22" t="n">
         <v>0.056</v>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AT22" t="n">
+      <c r="AU22" t="n">
         <v>0.73</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AV22" t="n">
         <v>1.13</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AW22" t="n">
         <v>0.017</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AX22" t="n">
         <v>0.022</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AY22" t="n">
         <v>0.34</v>
       </c>
-      <c r="AY22" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB22" t="n">
         <v>0.022</v>
       </c>
-      <c r="BB22" t="n">
+      <c r="BC22" t="n">
         <v>0.006</v>
       </c>
-      <c r="BC22" t="n">
-        <v>0</v>
-      </c>
       <c r="BD22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF22" t="n">
         <v>0</v>
       </c>
       <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
         <v>0.003</v>
       </c>
-      <c r="BH22" t="n">
-        <v>0</v>
-      </c>
       <c r="BI22" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL22" t="n">
         <v>0.052</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM105119</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>105119</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.68</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1.16</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>0.018</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0.016</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0.34</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K23" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.026</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0.0059</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>1.4</v>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>0.004</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="X23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y23" t="n">
         <v>0.056</v>
       </c>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr">
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA23" t="n">
+      <c r="AB23" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>1.1</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>0.015</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
         <v>0.016</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF23" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG23" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="AH23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI23" t="n">
         <v>0.024</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
         <v>0.006</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
       <c r="AK23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS23" t="n">
         <v>0.054</v>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AT23" t="n">
+      <c r="AU23" t="n">
         <v>0.66</v>
       </c>
-      <c r="AU23" t="n">
+      <c r="AV23" t="n">
         <v>1.1</v>
       </c>
-      <c r="AV23" t="n">
+      <c r="AW23" t="n">
         <v>0.012</v>
       </c>
-      <c r="AW23" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AX23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AY23" t="n">
         <v>0.34</v>
       </c>
-      <c r="AY23" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB23" t="n">
         <v>0.022</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BC23" t="n">
         <v>0.006</v>
       </c>
-      <c r="BC23" t="n">
-        <v>0</v>
-      </c>
       <c r="BD23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF23" t="n">
         <v>0</v>
       </c>
       <c r="BG23" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="BH23" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="BI23" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL23" t="n">
         <v>0.052</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>SMS-3URM105124</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>105124</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>SMS-3</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>URM</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>0.7</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>1.11</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.015</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>0.016</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.33</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.002</v>
-      </c>
       <c r="K24" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="L24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M24" t="n">
         <v>0.026</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>0.0067</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>0.003</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="X24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y24" t="n">
         <v>0.056</v>
       </c>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
-      <c r="AA24" t="n">
+      <c r="AB24" t="n">
         <v>0.67</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>1.09</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>0.014</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AE24" t="n">
         <v>0.016</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
         <v>0.31</v>
       </c>
-      <c r="AF24" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AG24" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH24" t="n">
         <v>0.03</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AI24" t="n">
         <v>0.022</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AJ24" t="n">
         <v>0.005</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
       <c r="AK24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="AR24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS24" t="n">
         <v>0.062</v>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="AT24" t="n">
+      <c r="AU24" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AU24" t="n">
+      <c r="AV24" t="n">
         <v>1.12</v>
       </c>
-      <c r="AV24" t="n">
+      <c r="AW24" t="n">
         <v>0.014</v>
       </c>
-      <c r="AW24" t="n">
+      <c r="AX24" t="n">
         <v>0.017</v>
       </c>
-      <c r="AX24" t="n">
+      <c r="AY24" t="n">
         <v>0.31</v>
       </c>
-      <c r="AY24" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="BA24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB24" t="n">
         <v>0.024</v>
       </c>
-      <c r="BB24" t="n">
+      <c r="BC24" t="n">
         <v>0.006</v>
       </c>
-      <c r="BC24" t="n">
-        <v>0</v>
-      </c>
       <c r="BD24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="BE24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BF24" t="n">
         <v>0</v>
       </c>
       <c r="BG24" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="BH24" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="BI24" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="BK24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL24" t="n">
         <v>0.054</v>
       </c>
     </row>

--- a/backend/downloads/merged_shift_chem_2025-07-17.xlsx
+++ b/backend/downloads/merged_shift_chem_2025-07-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL24"/>
+  <dimension ref="A1:BL26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,12 +761,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>399268</t>
+          <t>104645</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SMS-2</t>
+          <t>SMS-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -775,16 +775,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="G2" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="I2" t="n">
-        <v>0.024</v>
+        <v>0.014</v>
       </c>
       <c r="J2" t="n">
         <v>0.3</v>
@@ -793,20 +793,20 @@
         <v>0.002</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M2" t="n">
-        <v>0.026</v>
+        <v>0.022</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0062</v>
+        <v>0.0043</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0.01</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr">
@@ -839,19 +839,19 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.019</v>
+        <v>0.015</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="AG2" t="n">
         <v>0.002</v>
@@ -892,25 +892,65 @@
       <c r="AS2" t="n">
         <v>0.053</v>
       </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.052</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -923,12 +963,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>399281</t>
+          <t>104635</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SMS-2</t>
+          <t>SMS-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -937,38 +977,38 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02</v>
+        <v>0.014</v>
       </c>
       <c r="J3" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="L3" t="n">
         <v>0.02</v>
       </c>
       <c r="M3" t="n">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0063</v>
+        <v>0.0048</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0.01</v>
@@ -980,40 +1020,40 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.051</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.022</v>
+        <v>0.014</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AG3" t="n">
         <v>0.002</v>
@@ -1025,7 +1065,7 @@
         <v>0.022</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -1040,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -1054,25 +1094,65 @@
       <c r="AS3" t="n">
         <v>0.052</v>
       </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.052</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1085,12 +1165,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>399325</t>
+          <t>105213</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SMS-2</t>
+          <t>SMS-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1099,13 +1179,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="G4" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="I4" t="n">
         <v>0.017</v>
@@ -1114,23 +1194,23 @@
         <v>0.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="L4" t="n">
         <v>0.02</v>
       </c>
       <c r="M4" t="n">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0045</v>
+        <v>0.0055</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0.01</v>
@@ -1142,34 +1222,34 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.053</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>VI</t>
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="AE4" t="n">
         <v>0.019</v>
@@ -1184,10 +1264,10 @@
         <v>0.02</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -1202,39 +1282,79 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>0.003</v>
       </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
+      <c r="BA4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.053</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1247,12 +1367,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>400641</t>
+          <t>104863</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SMS-2</t>
+          <t>SMS-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1264,13 +1384,13 @@
         <v>0.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="H5" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.012</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.019</v>
       </c>
       <c r="J5" t="n">
         <v>0.33</v>
@@ -1282,7 +1402,7 @@
         <v>0.02</v>
       </c>
       <c r="M5" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="N5" t="n">
         <v>0.0047</v>
@@ -1292,10 +1412,10 @@
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1304,40 +1424,40 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="X5" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AG5" t="n">
         <v>0.002</v>
@@ -1346,10 +1466,10 @@
         <v>0.02</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -1370,33 +1490,73 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
+        <v>0.054</v>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.054</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1409,12 +1569,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>400730</t>
+          <t>104844</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SMS-2</t>
+          <t>SMS-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1423,38 +1583,38 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="G6" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="H6" t="n">
-        <v>0.019</v>
+        <v>0.015</v>
       </c>
       <c r="I6" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="J6" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="K6" t="n">
         <v>0.002</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M6" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0061</v>
+        <v>0.0051</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0.01</v>
@@ -1463,27 +1623,27 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>IV</t>
+          <t>III</t>
         </is>
       </c>
       <c r="AB6" t="n">
@@ -1493,13 +1653,13 @@
         <v>1.09</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AG6" t="n">
         <v>0.002</v>
@@ -1511,7 +1671,7 @@
         <v>0.022</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -1526,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -1540,25 +1700,65 @@
       <c r="AS6" t="n">
         <v>0.052</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.054</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1571,12 +1771,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>400746</t>
+          <t>105077</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SMS-2</t>
+          <t>SMS-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1585,34 +1785,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="H7" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="I7" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="J7" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M7" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0049</v>
+        <v>0.0051</v>
       </c>
       <c r="O7" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
@@ -1625,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0.002</v>
@@ -1634,93 +1834,133 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.06</v>
+        <v>0.054</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
       <c r="AB7" t="n">
         <v>0.71</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01</v>
+        <v>0.024</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="AG7" t="n">
         <v>0.002</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AI7" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB7" t="n">
         <v>0.023</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="inlineStr"/>
-      <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
+      <c r="BC7" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.053</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1733,7 +1973,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>104303</t>
+          <t>105230</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1747,34 +1987,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="I8" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="J8" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="L8" t="n">
         <v>0.02</v>
       </c>
       <c r="M8" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0061</v>
+        <v>0.0056</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="n">
@@ -1802,87 +2042,87 @@
         <v>0.01</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>VI</t>
+          <t>IV</t>
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="AE8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW8" t="n">
         <v>0.016</v>
       </c>
-      <c r="AF8" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>IV</t>
-        </is>
-      </c>
-      <c r="AU8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0.014</v>
-      </c>
       <c r="AX8" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="AZ8" t="n">
         <v>0.002</v>
@@ -1894,7 +2134,7 @@
         <v>0.022</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="BD8" t="n">
         <v>0</v>
@@ -1909,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="BI8" t="n">
         <v>0</v>
@@ -1935,7 +2175,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>104715</t>
+          <t>105248</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1949,16 +2189,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="H9" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="J9" t="n">
         <v>0.33</v>
@@ -1970,17 +2210,15 @@
         <v>0.02</v>
       </c>
       <c r="M9" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="N9" t="n">
-        <v>0.005</v>
+        <v>0.0047</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
@@ -1994,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2006,25 +2244,25 @@
         <v>0.02</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>V</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AD9" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AE9" t="n">
         <v>0.014</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.017</v>
       </c>
       <c r="AF9" t="n">
         <v>0.32</v>
@@ -2036,10 +2274,10 @@
         <v>0.02</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -2066,39 +2304,39 @@
         <v>0.01</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
       <c r="AU9" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="AX9" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB9" t="n">
         <v>0.023</v>
       </c>
-      <c r="AY9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0.024</v>
-      </c>
       <c r="BC9" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="BD9" t="n">
         <v>0</v>
@@ -2125,7 +2363,7 @@
         <v>0.01</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="10">
@@ -2139,12 +2377,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>104719</t>
+          <t>399078</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SMS-3</t>
+          <t>SMS-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2153,34 +2391,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="I10" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="J10" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="L10" t="n">
         <v>0.02</v>
       </c>
       <c r="M10" t="n">
-        <v>0.027</v>
+        <v>0.023</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0063</v>
+        <v>0.0047</v>
       </c>
       <c r="O10" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
@@ -2193,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="U10" t="n">
         <v>0.002</v>
@@ -2202,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr">
@@ -2217,19 +2455,19 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.019</v>
+        <v>0.013</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="AG10" t="n">
         <v>0.002</v>
@@ -2241,7 +2479,7 @@
         <v>0.023</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -2256,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -2301,12 +2539,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>104728</t>
+          <t>399278</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SMS-3</t>
+          <t>SMS-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2315,22 +2553,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="I11" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="J11" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="L11" t="n">
         <v>0.02</v>
@@ -2339,14 +2577,14 @@
         <v>0.024</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0062</v>
+        <v>0.0066</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R11" t="n">
         <v>0.01</v>
@@ -2364,31 +2602,31 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.054</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="AF11" t="n">
         <v>0.33</v>
@@ -2400,7 +2638,7 @@
         <v>0.02</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="AJ11" t="n">
         <v>0.006</v>
@@ -2421,7 +2659,7 @@
         <v>0.002</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.001</v>
@@ -2430,67 +2668,27 @@
         <v>0.01</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="AU11" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BL11" t="n">
         <v>0.053</v>
       </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2503,7 +2701,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>104731</t>
+          <t>105268</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2517,19 +2715,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="H12" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="I12" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="J12" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="K12" t="n">
         <v>0.002</v>
@@ -2538,13 +2736,13 @@
         <v>0.02</v>
       </c>
       <c r="M12" t="n">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0051</v>
+        <v>0.0052</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
@@ -2566,34 +2764,34 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="X12" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AG12" t="n">
         <v>0.002</v>
@@ -2605,7 +2803,7 @@
         <v>0.023</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
@@ -2636,23 +2834,23 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I</t>
         </is>
       </c>
       <c r="AU12" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="AZ12" t="n">
         <v>0.002</v>
@@ -2661,7 +2859,7 @@
         <v>0.02</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="BC12" t="n">
         <v>0.006</v>
@@ -2691,7 +2889,7 @@
         <v>0.01</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="13">
@@ -2705,7 +2903,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>104734</t>
+          <t>105278</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2722,16 +2920,16 @@
         <v>0.7</v>
       </c>
       <c r="G13" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="H13" t="n">
         <v>0.013</v>
       </c>
       <c r="I13" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="J13" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="K13" t="n">
         <v>0.002</v>
@@ -2740,13 +2938,13 @@
         <v>0.02</v>
       </c>
       <c r="M13" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0066</v>
+        <v>0.0069</v>
       </c>
       <c r="O13" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
@@ -2762,40 +2960,40 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>V</t>
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AG13" t="n">
         <v>0.002</v>
@@ -2804,28 +3002,28 @@
         <v>0.02</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="AJ13" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
         <v>0.004</v>
       </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0.003</v>
-      </c>
       <c r="AP13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.001</v>
@@ -2834,27 +3032,27 @@
         <v>0.01</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.052</v>
+        <v>0.063</v>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>IV</t>
         </is>
       </c>
       <c r="AU13" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.002</v>
@@ -2863,10 +3061,10 @@
         <v>0.02</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="BD13" t="n">
         <v>0</v>
@@ -2881,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
@@ -2893,7 +3091,7 @@
         <v>0.01</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="14">
@@ -2907,7 +3105,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>104737</t>
+          <t>104896</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2921,19 +3119,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="G14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H14" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="I14" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="J14" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="K14" t="n">
         <v>0.002</v>
@@ -2942,13 +3140,13 @@
         <v>0.02</v>
       </c>
       <c r="M14" t="n">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0053</v>
+        <v>0.0049</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="n">
@@ -2964,40 +3162,40 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="X14" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.013</v>
+        <v>0.022</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.31</v>
+        <v>0.28</v>
       </c>
       <c r="AG14" t="n">
         <v>0.002</v>
@@ -3006,13 +3204,13 @@
         <v>0.02</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
         <v>0.01</v>
@@ -3024,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.001</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.065</v>
+        <v>0.053</v>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
@@ -3044,19 +3242,19 @@
         </is>
       </c>
       <c r="AU14" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="AV14" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.018</v>
+        <v>0.023</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AZ14" t="n">
         <v>0.002</v>
@@ -3068,7 +3266,7 @@
         <v>0.022</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="BD14" t="n">
         <v>0</v>
@@ -3086,7 +3284,7 @@
         <v>0.003</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="BJ14" t="n">
         <v>0.001</v>
@@ -3109,7 +3307,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>104754</t>
+          <t>105233</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3123,31 +3321,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="G15" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="H15" t="n">
         <v>0.017</v>
       </c>
       <c r="I15" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="J15" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="L15" t="n">
         <v>0.02</v>
       </c>
       <c r="M15" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0059</v>
+        <v>0.0053</v>
       </c>
       <c r="O15" t="n">
         <v>1.1</v>
@@ -3172,34 +3370,34 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="X15" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="AE15" t="n">
         <v>0.022</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AG15" t="n">
         <v>0.002</v>
@@ -3208,10 +3406,10 @@
         <v>0.02</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
@@ -3238,27 +3436,27 @@
         <v>0.01</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>IV</t>
         </is>
       </c>
       <c r="AU15" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="AV15" t="n">
         <v>1.14</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="AX15" t="n">
         <v>0.018</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AZ15" t="n">
         <v>0.002</v>
@@ -3267,7 +3465,7 @@
         <v>0.02</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="BC15" t="n">
         <v>0.005</v>
@@ -3297,7 +3495,7 @@
         <v>0.01</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="16">
@@ -3311,7 +3509,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>104848</t>
+          <t>105081</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3325,19 +3523,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="G16" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="H16" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="I16" t="n">
-        <v>0.016</v>
+        <v>0.022</v>
       </c>
       <c r="J16" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="K16" t="n">
         <v>0.002</v>
@@ -3349,10 +3547,10 @@
         <v>0.024</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0052</v>
+        <v>0.0057</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
@@ -3368,16 +3566,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="X16" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Y16" t="n">
         <v>0.054</v>
@@ -3385,20 +3583,20 @@
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.013</v>
+        <v>0.018</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="AF16" t="n">
         <v>0.33</v>
@@ -3448,19 +3646,19 @@
         </is>
       </c>
       <c r="AU16" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AV16" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AW16" t="n">
         <v>0.018</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AZ16" t="n">
         <v>0.002</v>
@@ -3469,10 +3667,10 @@
         <v>0.02</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="BD16" t="n">
         <v>0</v>
@@ -3487,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="BI16" t="n">
         <v>0</v>
@@ -3499,7 +3697,7 @@
         <v>0.01</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="17">
@@ -3513,7 +3711,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>104959</t>
+          <t>104609</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3527,19 +3725,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="G17" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="H17" t="n">
         <v>0.016</v>
       </c>
       <c r="I17" t="n">
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="J17" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="K17" t="n">
         <v>0.002</v>
@@ -3548,10 +3746,10 @@
         <v>0.02</v>
       </c>
       <c r="M17" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0047</v>
+        <v>0.0046</v>
       </c>
       <c r="O17" t="n">
         <v>1.1</v>
@@ -3576,13 +3774,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="X17" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr">
@@ -3591,19 +3789,19 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AD17" t="n">
         <v>0.015</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AG17" t="n">
         <v>0.002</v>
@@ -3612,7 +3810,7 @@
         <v>0.02</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="AJ17" t="n">
         <v>0.006</v>
@@ -3642,39 +3840,39 @@
         <v>0.01</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="AU17" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="AX17" t="n">
         <v>0.012</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="BD17" t="n">
         <v>0</v>
@@ -3689,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="BI17" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="BJ17" t="n">
         <v>0.001</v>
@@ -3701,7 +3899,7 @@
         <v>0.01</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.073</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="18">
@@ -3715,7 +3913,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>104961</t>
+          <t>105251</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3729,19 +3927,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="G18" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H18" t="n">
         <v>0.016</v>
       </c>
       <c r="I18" t="n">
-        <v>0.019</v>
+        <v>0.015</v>
       </c>
       <c r="J18" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="K18" t="n">
         <v>0.002</v>
@@ -3750,13 +3948,13 @@
         <v>0.02</v>
       </c>
       <c r="M18" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0043</v>
+        <v>0.0053</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="n">
@@ -3778,34 +3976,34 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="X18" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="AE18" t="n">
         <v>0.015</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="AG18" t="n">
         <v>0.002</v>
@@ -3814,10 +4012,10 @@
         <v>0.02</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -3844,39 +4042,39 @@
         <v>0.01</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>IV</t>
         </is>
       </c>
       <c r="AU18" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="AZ18" t="n">
         <v>0.002</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="BD18" t="n">
         <v>0</v>
@@ -3894,7 +4092,7 @@
         <v>0.002</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="BJ18" t="n">
         <v>0.001</v>
@@ -3903,7 +4101,7 @@
         <v>0.01</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.063</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="19">
@@ -3917,7 +4115,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>105104</t>
+          <t>105194</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3931,16 +4129,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="G19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="I19" t="n">
-        <v>0.017</v>
+        <v>0.01</v>
       </c>
       <c r="J19" t="n">
         <v>0.32</v>
@@ -3952,13 +4150,13 @@
         <v>0.02</v>
       </c>
       <c r="M19" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0052</v>
+        <v>0.0057</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="n">
@@ -3974,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3986,25 +4184,25 @@
         <v>0.01</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>III</t>
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="AF19" t="n">
         <v>0.32</v>
@@ -4016,57 +4214,57 @@
         <v>0.02</v>
       </c>
       <c r="AI19" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AX19" t="n">
         <v>0.022</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="AU19" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0.019</v>
-      </c>
       <c r="AY19" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="AZ19" t="n">
         <v>0.002</v>
@@ -4078,7 +4276,7 @@
         <v>0.022</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="BD19" t="n">
         <v>0</v>
@@ -4093,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="BI19" t="n">
         <v>0</v>
@@ -4119,7 +4317,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>105107</t>
+          <t>105094</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4133,19 +4331,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G20" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="H20" t="n">
         <v>0.016</v>
       </c>
       <c r="I20" t="n">
-        <v>0.019</v>
+        <v>0.014</v>
       </c>
       <c r="J20" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="K20" t="n">
         <v>0.002</v>
@@ -4154,10 +4352,10 @@
         <v>0.02</v>
       </c>
       <c r="M20" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0063</v>
+        <v>0.0053</v>
       </c>
       <c r="O20" t="n">
         <v>1.1</v>
@@ -4188,87 +4386,87 @@
         <v>0.01</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.053</v>
+        <v>0.055</v>
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr">
         <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
           <t>II</t>
         </is>
       </c>
-      <c r="AB20" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AU20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW20" t="n">
         <v>0.014</v>
       </c>
-      <c r="AE20" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AU20" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AW20" t="n">
+      <c r="AX20" t="n">
         <v>0.018</v>
       </c>
-      <c r="AX20" t="n">
-        <v>0.019</v>
-      </c>
       <c r="AY20" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="AZ20" t="n">
         <v>0.002</v>
@@ -4280,7 +4478,7 @@
         <v>0.021</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="BD20" t="n">
         <v>0</v>
@@ -4321,7 +4519,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>105111</t>
+          <t>105087</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4335,19 +4533,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G21" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="I21" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="J21" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="K21" t="n">
         <v>0.002</v>
@@ -4356,10 +4554,10 @@
         <v>0.02</v>
       </c>
       <c r="M21" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="N21" t="n">
-        <v>0.006</v>
+        <v>0.0059</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
@@ -4378,55 +4576,55 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I</t>
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="AG21" t="n">
         <v>0.002</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.026</v>
+        <v>0.02</v>
       </c>
       <c r="AJ21" t="n">
         <v>0.006</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
         <v>0.01</v>
@@ -4438,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AP21" t="n">
         <v>0</v>
@@ -4447,10 +4645,10 @@
         <v>0.001</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.076</v>
+        <v>0.05</v>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
@@ -4458,19 +4656,19 @@
         </is>
       </c>
       <c r="AU21" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AZ21" t="n">
         <v>0.002</v>
@@ -4479,7 +4677,7 @@
         <v>0.02</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="BC21" t="n">
         <v>0.006</v>
@@ -4497,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="BH21" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="BI21" t="n">
         <v>0</v>
@@ -4509,7 +4707,7 @@
         <v>0.01</v>
       </c>
       <c r="BL21" t="n">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="22">
@@ -4523,7 +4721,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>105115</t>
+          <t>104238</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4537,19 +4735,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="G22" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="I22" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="J22" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="K22" t="n">
         <v>0.002</v>
@@ -4558,13 +4756,13 @@
         <v>0.02</v>
       </c>
       <c r="M22" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0054</v>
+        <v>0.0064</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="n">
@@ -4580,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4592,28 +4790,28 @@
         <v>0.02</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>IV</t>
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AD22" t="n">
         <v>0.019</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AG22" t="n">
         <v>0.002</v>
@@ -4622,10 +4820,10 @@
         <v>0.02</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.026</v>
+        <v>0.022</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
@@ -4643,76 +4841,36 @@
         <v>0.002</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AU22" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BL22" t="n">
         <v>0.052</v>
       </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4725,7 +4883,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>105119</t>
+          <t>105260</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4739,19 +4897,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="G23" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="H23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.018</v>
       </c>
-      <c r="I23" t="n">
-        <v>0.016</v>
-      </c>
       <c r="J23" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="K23" t="n">
         <v>0.002</v>
@@ -4760,13 +4918,13 @@
         <v>0.02</v>
       </c>
       <c r="M23" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0059</v>
+        <v>0.0046</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="n">
@@ -4782,37 +4940,37 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="X23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.056</v>
+        <v>0.054</v>
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>II</t>
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="AF23" t="n">
         <v>0.3</v>
@@ -4824,10 +4982,10 @@
         <v>0.02</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
@@ -4842,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AP23" t="n">
         <v>0</v>
@@ -4854,27 +5012,27 @@
         <v>0.01</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>IV</t>
         </is>
       </c>
       <c r="AU23" t="n">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="AV23" t="n">
         <v>1.1</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="AZ23" t="n">
         <v>0.002</v>
@@ -4892,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="BF23" t="n">
         <v>0</v>
@@ -4901,10 +5059,10 @@
         <v>0</v>
       </c>
       <c r="BH23" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="BI23" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="BJ23" t="n">
         <v>0.001</v>
@@ -4913,7 +5071,7 @@
         <v>0.01</v>
       </c>
       <c r="BL23" t="n">
-        <v>0.052</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="24">
@@ -4927,7 +5085,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>105124</t>
+          <t>104889</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4941,34 +5099,34 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G24" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="H24" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="I24" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="J24" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="K24" t="n">
         <v>0.002</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M24" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0067</v>
+        <v>0.0049</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="n">
@@ -4990,13 +5148,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.056</v>
+        <v>0.063</v>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr">
@@ -5005,31 +5163,31 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AD24" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AE24" t="n">
         <v>0.014</v>
       </c>
-      <c r="AE24" t="n">
-        <v>0.016</v>
-      </c>
       <c r="AF24" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AG24" t="n">
         <v>0.002</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AK24" t="n">
         <v>0</v>
@@ -5056,7 +5214,7 @@
         <v>0.01</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.062</v>
+        <v>0.051</v>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
@@ -5064,58 +5222,422 @@
         </is>
       </c>
       <c r="AU24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AV24" t="n">
         <v>1.12</v>
       </c>
       <c r="AW24" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>105255</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SMS-3</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>URM</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD25" t="n">
         <v>0.014</v>
       </c>
-      <c r="AX24" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="AY24" t="n">
+      <c r="AE25" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chemical</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>104885</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SMS-3</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>URM</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF26" t="n">
         <v>0.31</v>
       </c>
-      <c r="AZ24" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="BC24" t="n">
+      <c r="AG26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="BC26" t="n">
         <v>0.006</v>
       </c>
-      <c r="BD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>0.054</v>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0.053</v>
       </c>
     </row>
   </sheetData>
